--- a/resources/TestDataForResourceAddingToDB.xlsx
+++ b/resources/TestDataForResourceAddingToDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="8190"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="21075" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Новий ресурс для DAO у верхньому меню</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Ресурс відредактований</t>
+  </si>
+  <si>
+    <t>Контект відредактований</t>
+  </si>
+  <si>
+    <t>addTextToTitle</t>
+  </si>
+  <si>
+    <t>addTextToContent</t>
   </si>
 </sst>
 </file>
@@ -389,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,9 +417,11 @@
     <col min="3" max="3" width="39.140625" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -420,8 +437,14 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -437,8 +460,14 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -452,7 +481,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestDataForResourceAddingToDB.xlsx
+++ b/resources/TestDataForResourceAddingToDB.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
-    <t>Новий ресурс для DAO у верхньому меню</t>
-  </si>
-  <si>
     <t>Контент нового ресурсу для DAO</t>
   </si>
   <si>
@@ -30,9 +27,6 @@
     <t>AliasForDAO2</t>
   </si>
   <si>
-    <t>Новий ресурс для DAO в розділі "Ресурси"</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Ресурс відредактований</t>
-  </si>
-  <si>
     <t>Контект відредактований</t>
   </si>
   <si>
@@ -64,6 +55,15 @@
   </si>
   <si>
     <t>addTextToContent</t>
+  </si>
+  <si>
+    <t>відредагований</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новий ресурс вверху </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новий ресурс в меню </t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,25 +423,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -449,22 +449,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -472,22 +472,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestDataForResourceAddingToDB.xlsx
+++ b/resources/TestDataForResourceAddingToDB.xlsx
@@ -57,13 +57,13 @@
     <t>addTextToContent</t>
   </si>
   <si>
-    <t>відредагований</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новий ресурс вверху </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новий ресурс в меню </t>
+    <t>Новий ресурс вверху</t>
+  </si>
+  <si>
+    <t>Новий ресурс в меню</t>
+  </si>
+  <si>
+    <t>-відредагований</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -460,8 +460,8 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -483,8 +483,8 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
